--- a/test/TC-40.xlsx
+++ b/test/TC-40.xlsx
@@ -9,19 +9,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miwolijmwkhfSKBc/6teniVQF70nw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjDrFQhS23+C9JkcW6hCSn47V8VmA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TC-01</t>
+    <t>TC-40</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -81,28 +81,7 @@
     <t>Email: Prueba@gmail.com</t>
   </si>
   <si>
-    <t>Pass: PruebaTC1!</t>
-  </si>
-  <si>
-    <t>Fecha: 01/01/1993</t>
-  </si>
-  <si>
-    <t>Dir:  5th Avenue 125</t>
-  </si>
-  <si>
-    <t>Ciudad: Manhattan</t>
-  </si>
-  <si>
-    <t>Estado: New York</t>
-  </si>
-  <si>
-    <t>Cod postal: 10001</t>
-  </si>
-  <si>
-    <t>Country: United States</t>
-  </si>
-  <si>
-    <t>Phone: +1 470-673-5156</t>
+    <t>Contraseña</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -532,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -540,17 +519,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -578,7 +557,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -637,7 +616,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -671,9 +650,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1046,7 +1022,7 @@
       <c r="A10" s="20">
         <v>3.0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="22">
@@ -1062,7 +1038,7 @@
       <c r="D11" s="22">
         <v>4.0</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="13"/>
@@ -1073,9 +1049,7 @@
       <c r="D12" s="22">
         <v>5.0</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -1084,9 +1058,7 @@
       <c r="D13" s="22">
         <v>6.0</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -1095,9 +1067,7 @@
       <c r="D14" s="22">
         <v>7.0</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1106,9 +1076,7 @@
       <c r="D15" s="22">
         <v>8.0</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1117,18 +1085,14 @@
       <c r="D16" s="22">
         <v>9.0</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="D17" s="22">
         <v>10.0</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="25"/>
@@ -1137,9 +1101,7 @@
       <c r="D18" s="22">
         <v>11.0</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="E18" s="27"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1164,10 +1126,10 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -1181,7 +1143,7 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="G22" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -1193,88 +1155,88 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L23" s="39"/>
       <c r="M23" s="44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N23" s="39"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="G24" s="44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L24" s="39"/>
       <c r="M24" s="44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N24" s="39"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="45" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="47" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1282,11 +1244,11 @@
         <v>1.0</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="50" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="51"/>
@@ -1302,12 +1264,12 @@
       <c r="A27" s="49">
         <v>2.0</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>50</v>
+      <c r="B27" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="53" t="s">
-        <v>51</v>
+      <c r="D27" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="51"/>
@@ -1324,11 +1286,11 @@
         <v>3.0</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="53" t="s">
-        <v>53</v>
+      <c r="D28" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="E28" s="5"/>
       <c r="G28" s="51"/>
@@ -1344,21 +1306,21 @@
       <c r="A29" s="49">
         <v>4.0</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>54</v>
+      <c r="B29" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="53" t="s">
-        <v>55</v>
+      <c r="D29" s="50" t="s">
+        <v>48</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="G29" s="54"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="54"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="54"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="54"/>
+      <c r="M29" s="53"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -1367,13 +1329,13 @@
       <c r="C30" s="5"/>
       <c r="D30" s="50"/>
       <c r="E30" s="5"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="54"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="54"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="54"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="21"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -1382,82 +1344,82 @@
       <c r="C31" s="5"/>
       <c r="D31" s="50"/>
       <c r="E31" s="5"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="54"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="54"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="54"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="21"/>
     </row>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="G33" s="55" t="s">
-        <v>56</v>
+      <c r="G33" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="55" t="s">
-        <v>56</v>
+      <c r="I33" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="55" t="s">
-        <v>56</v>
+      <c r="K33" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="55" t="s">
-        <v>56</v>
+      <c r="M33" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="N33" s="5"/>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="G34" s="56"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="56"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="56"/>
+      <c r="M34" s="55"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" ht="25.5" customHeight="1">
-      <c r="G35" s="56"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="56"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="56"/>
+      <c r="M35" s="55"/>
       <c r="N35" s="5"/>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="G36" s="56"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="56"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="56"/>
+      <c r="M36" s="55"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="G37" s="56"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="56"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="56"/>
+      <c r="K37" s="55"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="56"/>
+      <c r="M37" s="55"/>
       <c r="N37" s="5"/>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="G38" s="56"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="56"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="56"/>
+      <c r="K38" s="55"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="56"/>
+      <c r="M38" s="55"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" ht="14.25" customHeight="1"/>
